--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Equities/Collar Pricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Equities/Collar Pricer.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Equities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Equities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3C45A-EE9F-465C-9476-B81D02643EF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25759711-4C60-47AF-BC2F-BF09433CE533}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="12915" windowHeight="11250" tabRatio="188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -634,7 +642,7 @@
       </c>
       <c r="F9" s="1">
         <f ca="1">TODAY()</f>
-        <v>43216</v>
+        <v>43640</v>
       </c>
       <c r="G9">
         <v>7.2478399999999998E-2</v>
@@ -647,7 +655,7 @@
       </c>
       <c r="L9" s="4">
         <f t="shared" ref="L9:L21" ca="1" si="0">(F9-$B$9)/365</f>
-        <v>9.6849315068493151</v>
+        <v>10.846575342465753</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" ref="M9:M21" si="1">G9</f>
@@ -679,7 +687,7 @@
       </c>
       <c r="F10" s="1">
         <f ca="1">F9+100</f>
-        <v>43316</v>
+        <v>43740</v>
       </c>
       <c r="G10">
         <v>7.3156250000000006E-2</v>
@@ -693,7 +701,7 @@
       </c>
       <c r="L10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9589041095890405</v>
+        <v>11.12054794520548</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="1"/>
@@ -724,14 +732,14 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" ref="F11:F21" ca="1" si="2">F10+100</f>
-        <v>43416</v>
+        <v>43840</v>
       </c>
       <c r="G11">
         <v>7.2917999999999997E-2</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.232876712328768</v>
+        <v>11.394520547945206</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="1"/>
@@ -756,14 +764,14 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43516</v>
+        <v>43940</v>
       </c>
       <c r="G12">
         <v>7.2721350000000004E-2</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.506849315068493</v>
+        <v>11.668493150684931</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="1"/>
@@ -782,14 +790,14 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43616</v>
+        <v>44040</v>
       </c>
       <c r="G13">
         <v>7.232268E-2</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.780821917808218</v>
+        <v>11.942465753424658</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="1"/>
@@ -808,14 +816,14 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43716</v>
+        <v>44140</v>
       </c>
       <c r="G14">
         <v>7.2004600000000002E-2</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.054794520547945</v>
+        <v>12.216438356164383</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="1"/>
@@ -835,14 +843,14 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43816</v>
+        <v>44240</v>
       </c>
       <c r="G15">
         <v>7.1701529999999999E-2</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.328767123287671</v>
+        <v>12.490410958904109</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="1"/>
@@ -861,14 +869,14 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43916</v>
+        <v>44340</v>
       </c>
       <c r="G16">
         <v>7.0578569999999993E-2</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.602739726027398</v>
+        <v>12.764383561643836</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="1"/>
@@ -887,14 +895,14 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44016</v>
+        <v>44440</v>
       </c>
       <c r="G17">
         <v>6.9399000000000002E-2</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.876712328767123</v>
+        <v>13.038356164383561</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" si="1"/>
@@ -913,14 +921,14 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44116</v>
+        <v>44540</v>
       </c>
       <c r="G18">
         <v>6.8985389999999994E-2</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.150684931506849</v>
+        <v>13.312328767123288</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="1"/>
@@ -939,14 +947,14 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44216</v>
+        <v>44640</v>
       </c>
       <c r="G19">
         <v>6.8568279999999995E-2</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.424657534246576</v>
+        <v>13.586301369863014</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="1"/>
@@ -965,14 +973,14 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44316</v>
+        <v>44740</v>
       </c>
       <c r="G20">
         <v>6.8164429999999998E-2</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.698630136986301</v>
+        <v>13.860273972602739</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="1"/>
@@ -985,14 +993,14 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="F21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44416</v>
+        <v>44840</v>
       </c>
       <c r="G21">
         <v>6.7741300000000004E-2</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.972602739726028</v>
+        <v>14.134246575342466</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="1"/>
